--- a/Assets/06.Table/BlueGangCheol.xlsx
+++ b/Assets/06.Table/BlueGangCheol.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1C12093-D0A9-4AB5-B9EA-A2C0B8028300}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A63F8E44-4310-4E6D-91E8-F63D27C6F181}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -76,13 +76,17 @@
   </si>
   <si>
     <t>Level</t>
+  </si>
+  <si>
+    <t>특수 훈련 - 문하생 단련</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -491,14 +495,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="23.875" style="2" customWidth="1"/>
@@ -507,7 +511,7 @@
     <col min="5" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -521,7 +525,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -535,7 +539,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -549,7 +553,7 @@
         <v>1500000</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -563,7 +567,7 @@
         <v>2000000</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -577,7 +581,7 @@
         <v>2000000</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -589,6 +593,20 @@
       </c>
       <c r="D6" s="4">
         <v>2500000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="4">
+        <v>3000000</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/BlueGangCheol.xlsx
+++ b/Assets/06.Table/BlueGangCheol.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A63F8E44-4310-4E6D-91E8-F63D27C6F181}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C335AD6-4768-4CCE-AB34-230AA68A23C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="BlueGangCheol" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -79,6 +79,10 @@
   </si>
   <si>
     <t>특수 훈련 - 문하생 단련</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한계 돌파 - 검은 구미호전</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -86,7 +90,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -495,14 +499,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="23.875" style="2" customWidth="1"/>
@@ -511,7 +515,7 @@
     <col min="5" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -525,7 +529,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -539,7 +543,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -553,7 +557,7 @@
         <v>1500000</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -567,7 +571,7 @@
         <v>2000000</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -581,7 +585,7 @@
         <v>2000000</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -595,7 +599,7 @@
         <v>2500000</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -606,6 +610,20 @@
         <v>10</v>
       </c>
       <c r="D7" s="4">
+        <v>3000000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="2">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="4">
         <v>3000000</v>
       </c>
     </row>

--- a/Assets/06.Table/BlueGangCheol.xlsx
+++ b/Assets/06.Table/BlueGangCheol.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C335AD6-4768-4CCE-AB34-230AA68A23C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC73998A-F121-4C5B-AB3B-07219195AFFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -78,11 +78,11 @@
     <t>Level</t>
   </si>
   <si>
-    <t>특수 훈련 - 문하생 단련</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>한계 돌파 - 검은 구미호전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특수 성장 - 제자 - 특훈</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -203,9 +203,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -243,7 +243,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -349,7 +349,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -491,7 +491,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -503,7 +503,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -604,7 +604,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>10</v>
@@ -618,7 +618,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>10</v>

--- a/Assets/06.Table/BlueGangCheol.xlsx
+++ b/Assets/06.Table/BlueGangCheol.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC73998A-F121-4C5B-AB3B-07219195AFFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1702205-51A0-4D92-BE61-9ECE30C0E689}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="BlueGangCheol" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -83,6 +83,10 @@
   </si>
   <si>
     <t>특수 성장 - 제자 - 특훈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한계 돌파 - 초월 광산</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -90,7 +94,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -499,14 +503,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
+      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="23.875" style="2" customWidth="1"/>
@@ -515,7 +519,7 @@
     <col min="5" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -529,7 +533,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -543,7 +547,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -557,7 +561,7 @@
         <v>1500000</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -571,7 +575,7 @@
         <v>2000000</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -585,7 +589,7 @@
         <v>2000000</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -599,7 +603,7 @@
         <v>2500000</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -613,7 +617,7 @@
         <v>3000000</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -624,6 +628,20 @@
         <v>10</v>
       </c>
       <c r="D8" s="4">
+        <v>3000000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="4">
         <v>3000000</v>
       </c>
     </row>
